--- a/Content/Table/CharacterStat.xlsx
+++ b/Content/Table/CharacterStat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\d\Content\AbilitySystem\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rs\Content\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAFE56-FF05-4714-8A15-17B87002139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C4E72-5E83-43C5-BBDC-7829816C9618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{8FDC40CD-C174-45E0-916B-1BE43D07A068}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8FDC40CD-C174-45E0-916B-1BE43D07A068}"/>
   </bookViews>
   <sheets>
     <sheet name="AttributeTable" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>---</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>MaxHealth</t>
   </si>
@@ -46,12 +43,6 @@
     <t>CurrentMana</t>
   </si>
   <si>
-    <t>MaxEnergy</t>
-  </si>
-  <si>
-    <t>CurrentEnergy</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
@@ -73,21 +64,17 @@
     <t>SuperArmor</t>
   </si>
   <si>
-    <t>SandbagCharacter</t>
-  </si>
-  <si>
-    <t>HR_Character</t>
+    <t>Barrier</t>
+  </si>
+  <si>
+    <t>MaxUltimate</t>
+  </si>
+  <si>
+    <t>CurrentUltimate</t>
+  </si>
+  <si>
+    <t>CharacterName</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss01_Enemy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barrier</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7ABEF3-88BC-4B70-9D24-84B401CA2F31}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1070,240 +1057,60 @@
     <col min="1" max="1" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>6000</v>
-      </c>
-      <c r="C2">
-        <v>5000</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>50</v>
-      </c>
-      <c r="L2">
-        <v>50</v>
-      </c>
-      <c r="M2">
-        <v>50</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>6000</v>
-      </c>
-      <c r="C3">
-        <v>5000</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1000</v>
-      </c>
-      <c r="L3">
-        <v>50</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4">
-        <v>6000</v>
-      </c>
-      <c r="C4">
-        <v>5000</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4">
-        <v>50</v>
-      </c>
-      <c r="M4">
-        <v>50</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
